--- a/medicine/Mort/Cimetière_du_Calvaire_(Minsk)/Cimetière_du_Calvaire_(Minsk).xlsx
+++ b/medicine/Mort/Cimetière_du_Calvaire_(Minsk)/Cimetière_du_Calvaire_(Minsk).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Calvaire (biélorusse: Кальварыйскiя могiлкi, russe: Кальварийское кладбище, polonais: cmentarz Kalwaryjski) est le cimetière le plus ancien qui soit conservé dans la ville de Minsk en Biélorussie. Il a une signification symbolique importante pour la communauté biélorusse et la communauté polonaise. De nombreux hommes politiques, poètes et artistes y sont inhumés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Calvaire était jusqu'au milieu du XIXe siècle un cimetière exclusivement catholique destiné d'abord à la population d'origine polonaise ou lituanienne. Il a été ouvert au XVIIIe siècle. La tombe la plus ancienne date de 1808.
 Une chapelle catholique néogothique, dédiée à l'Exaltation de la Sainte-Croix, a été construite à l'entrée du cimetière en 1839-1841 pour remplacer une ancienne chapelle de bois de 1673. Elle était ouverte au culte pendant l'ère soviétique.
 En 1967, les nouvelles inhumations sont interdites.
-Les autorités locales prennent la décision au début des années 1990 d'inscrire le cimetière à l'inventaire du patrimoine architectural de Minsk, de le conserver et de le restaurer, mais la presse révèle un scandale de corruption en 2001 : des tombes anciennes étant détruites pour en vendre les emplacements[1].
+Les autorités locales prennent la décision au début des années 1990 d'inscrire le cimetière à l'inventaire du patrimoine architectural de Minsk, de le conserver et de le restaurer, mais la presse révèle un scandale de corruption en 2001 : des tombes anciennes étant détruites pour en vendre les emplacements.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Calvaire contient près de 30 000 sépultures. 
-Les carrés militaires
-On trouve dans le cimetière du calvaire des tombes de soldats tombés au cours de différents conflits :
-des soldats de la Grande Armée napoléonienne y sont inhumés,
-des soldats prisonniers d'Autriche-Hongrie de la Première Guerre mondiale,
-des soldats polonais de la guerre entre la nouvelle république de Pologne et la Russie bolchévique de 1919-1920, ainsi que
-142 soldats soviétiques de la Seconde Guerre mondiale.
-Le carré juif
-Le carré juif comprend les sépultures de 3 000 Juifs du ghetto de Minsk (1943-1944).
 </t>
         </is>
       </c>
@@ -566,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +589,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les carrés militaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On trouve dans le cimetière du calvaire des tombes de soldats tombés au cours de différents conflits :
+des soldats de la Grande Armée napoléonienne y sont inhumés,
+des soldats prisonniers d'Autriche-Hongrie de la Première Guerre mondiale,
+des soldats polonais de la guerre entre la nouvelle république de Pologne et la Russie bolchévique de 1919-1920, ainsi que
+142 soldats soviétiques de la Seconde Guerre mondiale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le carré juif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le carré juif comprend les sépultures de 3 000 Juifs du ghetto de Minsk (1943-1944).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christoff Dammel (1780-1840) peintre, enterré dans la crypte de la chapelle
 Vaslav Ivanovski (1880-1943), maire de Minsk
@@ -596,31 +683,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Calvaire_(Minsk)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Calvaire_(Minsk)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Histoire de la Biélorussie
 Cimetière militaire de Minsk
